--- a/SICP-進捗.xlsx
+++ b/SICP-進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>章</t>
     <rPh sb="0" eb="1">
@@ -197,6 +197,57 @@
   </si>
   <si>
     <t>1.2.2節</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コインの両替の問題。プロセス図と空間とステップ数の増加オーダーを考える。</t>
+    <rPh sb="4" eb="6">
+      <t>リョウガエ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストで説明する際、プロセス図を書いていたので、回答を割愛した。</t>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カツアイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -262,14 +313,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,13 +656,13 @@
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D69" sqref="D69"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.26953125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="5" customWidth="1"/>
     <col min="4" max="4" width="42.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="61.81640625" customWidth="1"/>
   </cols>
@@ -620,7 +671,7 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -698,9 +749,18 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1.1399999999999999</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -942,7 +1002,7 @@
       <c r="A63" s="1">
         <v>2.16</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D63" t="s">
@@ -953,7 +1013,7 @@
       <c r="A64" s="1">
         <v>2.17</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
@@ -964,7 +1024,7 @@
       <c r="A65" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
@@ -975,7 +1035,7 @@
       <c r="A66" s="1">
         <v>2.19</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
@@ -984,7 +1044,7 @@
       <c r="D66" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -992,7 +1052,7 @@
       <c r="A67" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">

--- a/SICP-進捗.xlsx
+++ b/SICP-進捗.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>章</t>
     <rPh sb="0" eb="1">
@@ -247,6 +247,164 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>カツアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部分集合列挙の問題。手続き中の穴埋めをする。</t>
+    <rPh sb="0" eb="2">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウゴウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レッキョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>アナウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>穴埋めは出来たが、なぜそれでよいのかの説明はできていない。</t>
+    <rPh sb="0" eb="2">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平滑化の手続きの問題。
+手続きの実装はそれほど難しくないが、
+検証方法が難しかった。
+（検証するには、滑らかでない関数を定義し、
+平滑化した関数でグラフにプロットして確認するしかない）</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイカツカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ナメ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ヘイカツカ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均緩和法を繰り返す問題。</t>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復改良法の問題。</t>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">集積accumulate手続きを使ってcout-leaves手続きを実装するというものだが、accumulate手続きの引数でmap手続きを使うことがひかかった。
+</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>テツヅ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,14 +814,14 @@
   <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.81640625" customWidth="1"/>
     <col min="5" max="5" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -848,82 +1006,100 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1.32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1.33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1.34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>1.35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>1.36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>1.37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>1.38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1.39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1.41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1.42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1.43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="65" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2.0099999999999998</v>
       </c>
@@ -1118,88 +1294,103 @@
       <c r="A79" s="1">
         <v>2.3200000000000101</v>
       </c>
+      <c r="B79" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2.3300000000000098</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2.3400000000000101</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="52" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2.3500000000000099</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>2.3600000000000101</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2.3700000000000099</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2.3800000000000101</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2.3900000000000099</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2.4000000000000101</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2.4100000000000099</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2.4200000000000101</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2.4300000000000099</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2.4400000000000102</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2.4500000000000099</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2.4600000000000102</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2.47000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2.4800000000000102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2.49000000000001</v>
       </c>
@@ -1447,5 +1638,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>